--- a/biology/Botanique/Vernon_Heywood/Vernon_Heywood.xlsx
+++ b/biology/Botanique/Vernon_Heywood/Vernon_Heywood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vernon Hilton Heywood (né le 24 décembre 1927 à Édimbourg et mort le 18 septembre 2022[1]) est un biologiste britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vernon Hilton Heywood (né le 24 décembre 1927 à Édimbourg et mort le 18 septembre 2022) est un biologiste britannique.
 Il est spécialisé dans les plantes médicinales et aromatiques, et la conservation des espèces sauvages apparentées aux plantes cultivées.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vernon Heywood est nommé maître de conférences à l'université de Liverpool au Royaume-Uni en 1955, promu en 1960 et lecteur en 1963. Il reçoit la deuxième chaire établie en botanique en 1964 et quitte Liverpool en 1968.
-Il est professeur de botanique et chef de département à l'université de Reading jusqu'en 1987, date à laquelle il devient fondateur et directeur de Botanic Gardens Conservation International (BGCI) [2].
-En 1987, il reçoit la médaille linnéenne de la Linnean Society of London [3]. Planta Europa lui décerne son prix Linnaeus lors de sa cinquième conférence, tenue en 2007 à Cluj Napoca. À l'occasion son 75e anniversaire, Etelka Leadlay et Stephen Jury lui dédient leur ouvrage Taxonomy and Plant Conservation[4].
+Il est professeur de botanique et chef de département à l'université de Reading jusqu'en 1987, date à laquelle il devient fondateur et directeur de Botanic Gardens Conservation International (BGCI) .
+En 1987, il reçoit la médaille linnéenne de la Linnean Society of London . Planta Europa lui décerne son prix Linnaeus lors de sa cinquième conférence, tenue en 2007 à Cluj Napoca. À l'occasion son 75e anniversaire, Etelka Leadlay et Stephen Jury lui dédient leur ouvrage Taxonomy and Plant Conservation.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses publications comprennent plusieurs livres majeurs dont : 
 Principles of angiosperm taxonomy (1963), avec Peter Hadland Davis ;
